--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Paul_Fronton_Duplantier/Jacques_Paul_Fronton_Duplantier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Paul_Fronton_Duplantier/Jacques_Paul_Fronton_Duplantier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jacques Paul Fronton Duplantier, né le 10 janvier 1764 à Caillau, mort le 17 avril 1814 à Agen, est un avocat, botaniste, membre de la Convention et député au Conseil des Cinq-Cents.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à une famille de vieille bourgeoisie de l'Entre-deux-Mers, et est fils d'un capitaine garde-côtes. Il est reçu avocat au parlement de Paris et est armateur à Bordeaux lorsque la Révolution éclate. Il en adopte les idées nouvelles, devient administrateur du département, et est élu, le 11 septembre 1791, député suppléant de la Gironde à l'Assemblée législative, sans être appelé à y siéger.
 Le 8 septembre 1792, le département de la Gironde l'élit membre de la Convention, le 10e et dernier, par 334 voix sur 513 votants. Il s'associe à la politique des Girondins, ses compatriotes, rend compte (25 novembre 1792) de diverses adresses envoyées à la Convention, et, dans le procès de Louis XVI, répond au 3e appel nominal : « En votant contre l'appel au peuple, je ne me suis pas dissimulé les inconvénients d'un jugement définitif ; mais j'ai consulté ma conscience et la loi ; je vote pour la mort, et je demande que l'Assemblée suspende l'exécution ».
@@ -520,7 +534,7 @@
 Le 25 germinal an VI, il est élu député de la Gironde au Conseil des Cinq-Cents par 309 voix sur 374 votants ; le 17 messidor, dans la discussion sur le projet de loi relatif au tribunal de cassation, il demande que le choix des remplaçants soit fait par la voie du tirage au sort ; il propose (28 messidor) d'obliger les pensionnats particuliers à vaquer les décadis (l'urgence est déclarée) ; revient, le lendemain sur cette question, déclare impossible et inconvenant tout article prohibitif du repos, mais propose cependant d’interdire aux instituteurs des deux sexes de vaquer d'autres jours que les décadis et les quintidis ; demande (1er thermidor) que les rentes viagères dues aux émigrés reviennent à la République pendant quinze ans (ajourné) ; fait décréter (10 thermidor) la célébration au sein du Conseil de la fête anniversaire du 10 août ; fait adopter (24 brumaire an VII) un projet pour activer le partage des biens indivis avec la nation ; fait voter (18 frimaire) plusieurs articles d'un projet de loi établissant, pendant 15 ans, les droits de successibilité de la République aux biens des ascendants des émigrés, à dater du jour de la paix générale ; présente (24 ventôse) un projet tendant à faire célébrer tous les ans, dans l'enceinte des séances du Conseil, la fête de la souveraineté du peuple ; parle (22 prairial) en faveur de la liberté de la presse ; fait interdire (4 thermidor) à tout fonctionnaire public de s'intéresser dans aucune fourniture ; se fait (2 fructidor) l'organe des plaintes des armateurs de Bordeaux sur les entraves apportées à la course maritime ; discute (16 brumaire an VIII) la répartition de l'emprunt de cent millions, combat le système de la commission, et demande la présentation d'un autre projet.
 Hostile au coup d'État du 18 brumaire, il figure sur la liste des représentants exclus le lendemain du Corps législatif, et destinés à la déportation. « On proclame ici, à contrecœur, dit Bernadau dans ses notes manuscrites déposées à la bibliothèque de Bordeaux, le décret du 19 brumaire, qui supprimé le Directoire et crée à la place trois consuls. Le parti anti-jacobin manifeste partout sa joie, et l'on chante aux spectacles des couplets que le bureau central n'a pas osé interdire. En voici un des plus saillants :
 L'Empire offre à Duplantier des fonctions publiques ; il les refuse, et, ayant perdu sa fortune pendant la Révolution, et celle de sa femme dans l'insurrection de Saint-Domingue, il se fait inscrire au barreau d'Agen, en devient un des meilleurs avocats, et remplit les fonctions de bâtonnier de 1811 jusqu'à sa mort. Littérateur et botaniste, Duplantier avait fondé avec Brémontier la Société d'histoire naturelle de Bordeaux (1790). Il a laissé un manuscrit sur la Classification des plantes, et un Mémoire sur les plantations des dunes.
-Il avait été franc-maçon[1].
+Il avait été franc-maçon.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>08/09/1792 - 07/06/1793 : Gironde - Girondins
 14/04/1798 - 26/12/1799 : Gironde - Modérés</t>
@@ -580,7 +596,9 @@
           <t>Travaux législatifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Opinion de J.-P.-F. Duplantier sur le projet relatif au calendrier républicain. Séance du 12 thermidor an VI 1797
 Opinion de J.-P.-F. Duplantier sur l'établissement des écoles primaires nationales. Séance du 24 nivôse an VII 1798
@@ -617,7 +635,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Classifications des plantes
 Mémoire sur les plantations des dunes
